--- a/listas/EstadoODepartamento-2024-02-22.xlsx
+++ b/listas/EstadoODepartamento-2024-02-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\RUVLO 2.0\listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D13A2-DCB5-497D-9CD6-FC185ABFEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5DEA84-B819-4EEF-8968-4A197667FD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -578,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -611,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -622,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -655,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>17</v>
@@ -677,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
@@ -688,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -699,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
@@ -710,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -721,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -743,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
@@ -765,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
@@ -798,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -809,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -831,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>32</v>
@@ -842,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>33</v>
@@ -853,7 +853,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>34</v>
